--- a/manage-member/training_form.xlsx
+++ b/manage-member/training_form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRIC-E05\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\riceaudit-ricethailand\manage-member\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8081B917-EDDE-4771-9FEB-DB5B8BF00A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BAF14D-415F-4222-85DA-A538EB8086E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,71 +69,71 @@
     <t>ประเภทตำแหน่ง</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>edu1</t>
-  </si>
-  <si>
-    <t>branch1</t>
-  </si>
-  <si>
-    <t>faculty1</t>
-  </si>
-  <si>
-    <t>inst1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>edu2</t>
-  </si>
-  <si>
-    <t>branch2</t>
-  </si>
-  <si>
-    <t>faculty2</t>
-  </si>
-  <si>
-    <t>inst2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>edu3</t>
-  </si>
-  <si>
-    <t>branch3</t>
-  </si>
-  <si>
-    <t>faculty3</t>
-  </si>
-  <si>
-    <t>inst3</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>edu4</t>
-  </si>
-  <si>
-    <t>branch4</t>
-  </si>
-  <si>
-    <t>faculty4</t>
-  </si>
-  <si>
-    <t>inst4</t>
+    <t>ปวส.</t>
+  </si>
+  <si>
+    <t>วุฒิปวส.</t>
+  </si>
+  <si>
+    <t>คณะปวส.</t>
+  </si>
+  <si>
+    <t>สาขาปวส.</t>
+  </si>
+  <si>
+    <t>สถาบันปวส.</t>
+  </si>
+  <si>
+    <t>ปริญญาตรี</t>
+  </si>
+  <si>
+    <t>วุฒิปริญญาตรี</t>
+  </si>
+  <si>
+    <t>คณะปริญญาตรี</t>
+  </si>
+  <si>
+    <t>สาขาปริญญาตรี</t>
+  </si>
+  <si>
+    <t>สถาบันปริญญาตรี</t>
+  </si>
+  <si>
+    <t>ปริญญาโท</t>
+  </si>
+  <si>
+    <t>วุฒิปริญญาโท</t>
+  </si>
+  <si>
+    <t>คณะปริญญาโท</t>
+  </si>
+  <si>
+    <t>สาขาปริญญาโท</t>
+  </si>
+  <si>
+    <t>สถาบันปริญญาโท</t>
+  </si>
+  <si>
+    <t>ปริญญาเอก</t>
+  </si>
+  <si>
+    <t>วุฒิปริญญาเอก</t>
+  </si>
+  <si>
+    <t>คณะปริญญาเอก</t>
+  </si>
+  <si>
+    <t>สาขาปริญญาเอก</t>
+  </si>
+  <si>
+    <t>สถาบันปริญญาเอก</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +149,31 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -185,17 +203,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,112 +520,137 @@
   <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
